--- a/Datos_Movilidad_12012018.xlsx
+++ b/Datos_Movilidad_12012018.xlsx
@@ -3632,44 +3632,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447120</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="31075" t="29255" r="17839" b="22738"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17043840" y="3608280"/>
-          <a:ext cx="11492280" cy="4754160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>100080</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -3677,65 +3639,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1750680</xdr:colOff>
+      <xdr:colOff>1750320</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Imagen 2" descr=""/>
+        <xdr:cNvPr id="0" name="Imagen 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7291440" y="3560760"/>
-          <a:ext cx="1650600" cy="1536480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed=""/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8599680" y="401040"/>
-          <a:ext cx="1953360" cy="1567080"/>
+          <a:off x="7338960" y="3560760"/>
+          <a:ext cx="1650240" cy="1536120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3764,7 +3684,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -3837,19 +3757,19 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="2.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.2712550607287"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="2.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="2.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -4068,11 +3988,11 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.3805668016194"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -4204,7 +4124,7 @@
   </sheetPr>
   <dimension ref="A1:N230"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -4212,55 +4132,55 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="10" width="3.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="10" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="10" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="10" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="11" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="11" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="11" min="9" style="10" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="10" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="10" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="10" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="10" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="10" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="257" min="15" style="10" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="258" min="258" style="10" width="3.10526315789474"/>
     <col collapsed="false" hidden="false" max="259" min="259" style="10" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="10" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="10" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="10" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="10" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="262" min="262" style="10" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="263" min="263" style="10" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="263" min="263" style="10" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="264" min="264" style="10" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="10" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="10" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="267" min="266" style="10" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="268" min="268" style="10" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="268" min="268" style="10" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="269" min="269" style="10" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="270" min="270" style="10" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="270" min="270" style="10" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="513" min="271" style="10" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="514" min="514" style="10" width="3.10526315789474"/>
     <col collapsed="false" hidden="false" max="515" min="515" style="10" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="10" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="10" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="10" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="10" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="518" min="518" style="10" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="519" min="519" style="10" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="519" min="519" style="10" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="520" min="520" style="10" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="10" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="10" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="523" min="522" style="10" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="524" min="524" style="10" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="524" min="524" style="10" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="525" min="525" style="10" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="526" min="526" style="10" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="526" min="526" style="10" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="769" min="527" style="10" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="770" min="770" style="10" width="3.10526315789474"/>
     <col collapsed="false" hidden="false" max="771" min="771" style="10" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="10" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="10" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="10" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="10" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="774" min="774" style="10" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="775" min="775" style="10" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="775" min="775" style="10" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="776" min="776" style="10" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="10" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="10" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="779" min="778" style="10" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="780" min="780" style="10" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="780" min="780" style="10" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="781" min="781" style="10" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="782" min="782" style="10" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="782" min="782" style="10" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="783" style="10" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -12515,48 +12435,48 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="10" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="10" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="41.668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="10" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="10" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="10" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="10" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="10" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="10" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="14" min="12" style="10" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="256" min="15" style="10" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="10" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="258" min="258" style="10" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="10" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="10" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="10" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="10" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="10" width="41.668016194332"/>
     <col collapsed="false" hidden="false" max="262" min="262" style="10" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="264" min="263" style="10" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="264" min="263" style="10" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="10" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="266" min="266" style="10" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="267" min="267" style="10" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="270" min="268" style="10" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="512" min="271" style="10" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="513" min="513" style="10" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="514" min="514" style="10" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="10" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="10" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="10" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="10" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="10" width="41.668016194332"/>
     <col collapsed="false" hidden="false" max="518" min="518" style="10" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="520" min="519" style="10" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="520" min="519" style="10" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="10" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="522" min="522" style="10" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="523" min="523" style="10" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="526" min="524" style="10" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="768" min="527" style="10" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="769" min="769" style="10" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="770" min="770" style="10" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="10" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="10" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="10" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="10" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="10" width="41.668016194332"/>
     <col collapsed="false" hidden="false" max="774" min="774" style="10" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="776" min="775" style="10" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="776" min="775" style="10" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="10" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="778" min="778" style="10" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="779" min="779" style="10" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="782" min="780" style="10" width="7.49797570850202"/>
@@ -25486,7 +25406,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -25531,20 +25451,20 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="1.82186234817814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="1.71255060728745"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -25714,19 +25634,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B5:F20"/>
+  <dimension ref="B4:F20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.8744939271255"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>887</v>
@@ -25737,7 +25658,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
         <v>889</v>
       </c>
@@ -25816,6 +25737,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos_Movilidad_12012018.xlsx
+++ b/Datos_Movilidad_12012018.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Resaltar en dashboard para dar click: OK</t>
   </si>
   <si>
-    <t xml:space="preserve">Formatear numeros</t>
+    <t xml:space="preserve">Formatear numeros: OK</t>
   </si>
   <si>
     <t xml:space="preserve">Tesorería: nombre del quien se entrega, se repite el solicitante</t>
@@ -3672,9 +3672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1749600</xdr:colOff>
+      <xdr:colOff>1749240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3687,8 +3687,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7415280" y="3895920"/>
-          <a:ext cx="1649520" cy="1596240"/>
+          <a:off x="7472160" y="3895920"/>
+          <a:ext cx="1649160" cy="1595880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3711,13 +3711,13 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -3845,19 +3845,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -4076,11 +4076,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.8785425101215"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -4220,53 +4220,53 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="10" width="3.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="10" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="10" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="10" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="11" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="11" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="11" min="9" style="10" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="10" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="10" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="10" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="257" min="15" style="10" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="258" min="258" style="10" width="3.10526315789474"/>
     <col collapsed="false" hidden="false" max="259" min="259" style="10" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="10" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="10" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="10" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="10" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="262" min="262" style="10" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="263" min="263" style="10" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="263" min="263" style="10" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="264" min="264" style="10" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="10" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="10" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="267" min="266" style="10" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="268" min="268" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="268" min="268" style="10" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="269" min="269" style="10" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="270" min="270" style="10" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="513" min="271" style="10" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="514" min="514" style="10" width="3.10526315789474"/>
     <col collapsed="false" hidden="false" max="515" min="515" style="10" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="10" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="10" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="10" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="10" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="518" min="518" style="10" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="519" min="519" style="10" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="519" min="519" style="10" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="520" min="520" style="10" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="10" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="10" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="523" min="522" style="10" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="524" min="524" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="524" min="524" style="10" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="525" min="525" style="10" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="526" min="526" style="10" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="769" min="527" style="10" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="770" min="770" style="10" width="3.10526315789474"/>
     <col collapsed="false" hidden="false" max="771" min="771" style="10" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="10" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="10" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="10" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="10" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="774" min="774" style="10" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="775" min="775" style="10" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="775" min="775" style="10" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="776" min="776" style="10" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="10" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="10" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="779" min="778" style="10" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="780" min="780" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="780" min="780" style="10" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="781" min="781" style="10" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="782" min="782" style="10" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="783" style="10" width="8.89068825910931"/>
@@ -12523,48 +12523,48 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="10" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="10" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="10" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="10" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="10" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="10" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="10" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="14" min="12" style="10" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="256" min="15" style="10" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="10" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="258" min="258" style="10" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="10" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="10" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="10" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="10" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="10" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="10" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="262" min="262" style="10" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="264" min="263" style="10" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="264" min="263" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="10" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="266" min="266" style="10" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="267" min="267" style="10" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="270" min="268" style="10" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="512" min="271" style="10" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="513" min="513" style="10" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="514" min="514" style="10" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="10" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="10" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="10" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="10" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="10" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="10" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="518" min="518" style="10" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="520" min="519" style="10" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="520" min="519" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="10" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="522" min="522" style="10" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="523" min="523" style="10" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="526" min="524" style="10" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="768" min="527" style="10" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="769" min="769" style="10" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="770" min="770" style="10" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="10" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="10" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="10" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="10" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="10" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="10" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="774" min="774" style="10" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="776" min="775" style="10" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="776" min="775" style="10" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="10" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="778" min="778" style="10" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="779" min="779" style="10" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="782" min="780" style="10" width="7.49797570850202"/>
@@ -25494,7 +25494,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -25546,13 +25546,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.412955465587"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="1.49797570850202"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -25731,7 +25731,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.8056680161943"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
